--- a/lab-422/lab-422.xlsx
+++ b/lab-422/lab-422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alen_marz/Documents/physics-4sem-labs/lab-422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46EEAFC-5403-694C-99A9-B65A11426381}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65346C7-9BC3-A14B-94E9-8CC9F6CAE58F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" activeTab="1" xr2:uid="{F6DFB7C5-F50D-9648-8E1D-436350FC4787}"/>
   </bookViews>
